--- a/Methane/Sample_List.xlsx
+++ b/Methane/Sample_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2022\Methane\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Documents/Ecuador2022/Methane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7086334B-5511-4AE1-AD69-2589CD51DD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="13_ncr:1_{7086334B-5511-4AE1-AD69-2589CD51DD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{476C2DA9-01EB-464D-BBB5-F4920AC79F78}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{34884800-1E70-4B18-BB5C-29A6994F50DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34884800-1E70-4B18-BB5C-29A6994F50DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>Time headspace introduced</t>
   </si>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <t>definatly messed this one up when putting in N2 and taking out water</t>
-  </si>
-  <si>
-    <t>started inverting samples before procedure @ 18:50</t>
-  </si>
-  <si>
-    <t>Removed 3-way guage from tedlar @21:23</t>
   </si>
   <si>
     <t>Methane std 100ppb</t>
@@ -119,6 +113,27 @@
   </si>
   <si>
     <t>13:40-16:00</t>
+  </si>
+  <si>
+    <t>Notes2</t>
+  </si>
+  <si>
+    <t>lost some gas</t>
+  </si>
+  <si>
+    <t>moisture got in (but still able to analyze)</t>
+  </si>
+  <si>
+    <t>pulled out .01ml more h2o than shoud have</t>
+  </si>
+  <si>
+    <t>started inverting samples before procedure @ 18:50 7/29</t>
+  </si>
+  <si>
+    <t>Removed 3-way guage from tedlar @21:23 7/29</t>
+  </si>
+  <si>
+    <t>realized was using tedlar bag wrong SO BAD @21:36 7/30/2022</t>
   </si>
 </sst>
 </file>
@@ -482,3267 +497,4239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CD6BAC-7186-4E9D-B86D-F5D344B4B531}">
-  <dimension ref="A2:K335"/>
+  <dimension ref="A2:L335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>22</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>23</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>24</v>
       </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.22638888888888889</v>
       </c>
-      <c r="D9" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.22361111111111109</v>
       </c>
-      <c r="D10" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.22013888888888888</v>
       </c>
-      <c r="D11" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.21805555555555556</v>
       </c>
-      <c r="D12" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F12" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.32847222222222222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.21527777777777779</v>
       </c>
-      <c r="D13" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F13" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D14" s="1">
         <v>0.21180555555555555</v>
       </c>
-      <c r="D14" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F14" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D15" s="1">
         <v>0.20972222222222223</v>
       </c>
-      <c r="D15" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F15" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.32013888888888892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16">
         <v>8</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D16" s="1">
         <v>0.20694444444444446</v>
       </c>
-      <c r="D16" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F16" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.31805555555555554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
       <c r="B17">
         <v>9</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.20416666666666669</v>
       </c>
-      <c r="D17" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F17" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.31597222222222221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D18" s="1">
         <v>0.20208333333333331</v>
       </c>
-      <c r="D18" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F18" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.31388888888888888</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
       <c r="B19">
         <v>11</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D19" s="1">
         <v>0.19930555555555554</v>
       </c>
-      <c r="D19" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F19" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.31041666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
       <c r="B20">
         <v>12</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D20" s="1">
         <v>0.19652777777777777</v>
       </c>
-      <c r="D20" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F20" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.30902777777777779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
       <c r="B21">
         <v>13</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
+        <v>44406</v>
+      </c>
+      <c r="D21" s="1">
         <v>0.47152777777777777</v>
       </c>
-      <c r="D21" s="2">
-        <v>44406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F21" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
       <c r="B22">
         <v>14</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D22" s="1">
         <v>0.19375000000000001</v>
       </c>
-      <c r="D22" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
       <c r="B23">
         <v>15</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D23" s="1">
         <v>0.19097222222222221</v>
       </c>
-      <c r="D23" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F23" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
       <c r="B24">
         <v>16</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D24" s="1">
         <v>0.18888888888888888</v>
       </c>
-      <c r="D24" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
       <c r="B25">
         <v>17</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D25" s="1">
         <v>0.18611111111111112</v>
       </c>
-      <c r="D25" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F25" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.29236111111111113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
       <c r="B26">
         <v>18</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D26" s="1">
         <v>0.18333333333333335</v>
       </c>
-      <c r="D26" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F26" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.2902777777777778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
       <c r="B27">
         <v>19</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D27" s="1">
         <v>0.18055555555555555</v>
       </c>
-      <c r="D27" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F27" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.28819444444444448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
       <c r="B28">
         <v>20</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D28" s="1">
         <v>0.17777777777777778</v>
       </c>
-      <c r="D28" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F28" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.28680555555555554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
       <c r="B29">
         <v>21</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D29" s="1">
         <v>0.19652777777777777</v>
       </c>
-      <c r="D29" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F29" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22</v>
       </c>
       <c r="B30">
         <v>22</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D30" s="1">
         <v>0.17291666666666669</v>
       </c>
-      <c r="D30" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
       <c r="B31">
         <v>23</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D31" s="1">
         <v>0.16944444444444443</v>
       </c>
-      <c r="D31" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24</v>
       </c>
       <c r="B32">
         <v>24</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D32" s="1">
         <v>0.1673611111111111</v>
       </c>
-      <c r="D32" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.27847222222222223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>25</v>
       </c>
       <c r="B33">
         <v>25</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D33" s="1">
         <v>0.16458333333333333</v>
       </c>
-      <c r="D33" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.27430555555555552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>26</v>
       </c>
       <c r="B34">
         <v>26</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D34" s="1">
         <v>0.16041666666666668</v>
       </c>
-      <c r="D34" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.2722222222222222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>27</v>
       </c>
       <c r="B35">
         <v>27</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D35" s="1">
         <v>0.16250000000000001</v>
       </c>
-      <c r="D35" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>28</v>
       </c>
       <c r="B36">
         <v>28</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D36" s="1">
         <v>0.15833333333333333</v>
       </c>
-      <c r="D36" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.26874999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>29</v>
       </c>
       <c r="B37">
         <v>29</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D37" s="1">
         <v>0.15625</v>
       </c>
-      <c r="D37" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
       <c r="B38">
         <v>30</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D38" s="1">
         <v>0.14305555555555557</v>
       </c>
-      <c r="D38" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
       <c r="B39">
         <v>31</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D39" s="1">
         <v>0.14027777777777778</v>
       </c>
-      <c r="D39" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.25416666666666665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
       <c r="B40">
         <v>32</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D40" s="1">
         <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D40" s="2">
-        <v>44407</v>
       </c>
       <c r="E40" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.19444444444444445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>33</v>
       </c>
       <c r="B41">
         <v>33</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D41" s="1">
         <v>0.13819444444444443</v>
-      </c>
-      <c r="D41" s="2">
-        <v>44407</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>34</v>
       </c>
       <c r="B42">
         <v>34</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D42" s="1">
         <v>0.13541666666666666</v>
       </c>
-      <c r="D42" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.24791666666666667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35</v>
       </c>
       <c r="B43">
         <v>35</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D43" s="1">
         <v>0.13333333333333333</v>
       </c>
-      <c r="D43" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.24513888888888888</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36</v>
       </c>
       <c r="B44">
         <v>36</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D44" s="1">
         <v>0.12569444444444444</v>
       </c>
-      <c r="D44" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>37</v>
       </c>
       <c r="B45">
         <v>37</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D45" s="1">
         <v>0.12847222222222224</v>
       </c>
-      <c r="D45" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.24097222222222223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>38</v>
       </c>
       <c r="B46">
         <v>38</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D46" s="1">
         <v>0.12291666666666667</v>
       </c>
-      <c r="D46" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.23611111111111113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>39</v>
       </c>
       <c r="B47">
         <v>39</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D47" s="1">
         <v>0.13125000000000001</v>
       </c>
-      <c r="D47" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.23958333333333334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>40</v>
       </c>
       <c r="B48">
         <v>40</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D48" s="1">
         <v>0.11666666666666665</v>
       </c>
-      <c r="D48" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F48" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.22152777777777777</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>41</v>
       </c>
       <c r="B49">
         <v>41</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D49" s="1">
         <v>0.12013888888888889</v>
       </c>
-      <c r="D49" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F49" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.22361111111111109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>42</v>
       </c>
       <c r="B50">
         <v>42</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
+        <v>44406</v>
+      </c>
+      <c r="D50" s="1">
         <v>0.92013888888888884</v>
       </c>
-      <c r="D50" s="2">
-        <v>44406</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F50" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>43</v>
       </c>
       <c r="B51">
         <v>43</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D51" s="1">
         <v>0.1125</v>
       </c>
-      <c r="D51" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>44</v>
       </c>
       <c r="B52">
         <v>44</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D52" s="1">
         <v>0.11527777777777777</v>
       </c>
-      <c r="D52" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F52" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.21944444444444444</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>45</v>
       </c>
       <c r="B53">
         <v>45</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D53" s="1">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="D53" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F53" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.21111111111111111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>46</v>
       </c>
       <c r="B54">
         <v>46</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D54" s="1">
         <v>7.9861111111111105E-2</v>
       </c>
-      <c r="D54" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F54" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.20625000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>47</v>
       </c>
       <c r="B55">
         <v>47</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D55" s="1">
         <v>9.3055555555555558E-2</v>
       </c>
-      <c r="D55" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F55" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.21388888888888891</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>48</v>
       </c>
       <c r="B56">
         <v>48</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D56" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D56" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F56" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.20347222222222219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>49</v>
       </c>
       <c r="B57">
         <v>49</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D57" s="1">
         <v>7.3611111111111113E-2</v>
       </c>
-      <c r="D57" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F57" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.20138888888888887</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>50</v>
       </c>
       <c r="B58">
         <v>50</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D58" s="1">
         <v>5.486111111111111E-2</v>
       </c>
-      <c r="D58" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F58" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.17847222222222223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>51</v>
       </c>
       <c r="B59">
         <v>51</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D59" s="1">
         <v>1.5972222222222224E-2</v>
       </c>
-      <c r="D59" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F59" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.14791666666666667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>52</v>
       </c>
       <c r="B60">
         <v>52</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D60" s="1">
         <v>6.3888888888888884E-2</v>
       </c>
-      <c r="D60" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F60" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.18194444444444444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>53</v>
       </c>
       <c r="B61">
         <v>53</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D61" s="1">
         <v>5.1388888888888894E-2</v>
       </c>
-      <c r="D61" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F61" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.1763888888888889</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>54</v>
       </c>
       <c r="B62">
         <v>54</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D62" s="1">
         <v>4.9305555555555554E-2</v>
       </c>
-      <c r="D62" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>55</v>
       </c>
       <c r="B63">
         <v>55</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D63" s="1">
         <v>5.8333333333333327E-2</v>
       </c>
-      <c r="D63" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>56</v>
       </c>
       <c r="B64">
         <v>56</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D64" s="1">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D64" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F64" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.15138888888888888</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>57</v>
       </c>
       <c r="B65">
         <v>57</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D65" s="1">
         <v>2.7083333333333334E-2</v>
       </c>
-      <c r="D65" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F65" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.15763888888888888</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>58</v>
       </c>
       <c r="B66">
         <v>58</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D66" s="1">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="D66" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F66" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.15347222222222223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>59</v>
       </c>
       <c r="B67">
         <v>59</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D67" s="1">
         <v>6.1111111111111116E-2</v>
       </c>
-      <c r="D67" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F67" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.18472222222222223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>60</v>
       </c>
       <c r="B68">
         <v>60</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D68" s="1">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="D68" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>61</v>
       </c>
       <c r="B69">
         <v>61</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D69" s="1">
         <v>7.7083333333333337E-2</v>
       </c>
-      <c r="D69" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F69" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.19930555555555554</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>62</v>
       </c>
       <c r="B70">
         <v>62</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D70" s="1">
         <v>7.013888888888889E-2</v>
       </c>
-      <c r="D70" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F70" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.19722222222222222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>63</v>
       </c>
       <c r="B71">
         <v>63</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D71" s="1">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="D71" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F71" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.13680555555555554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>64</v>
       </c>
       <c r="B72">
         <v>64</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D72" s="1">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="D72" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F72" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.14166666666666666</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>65</v>
       </c>
       <c r="B73">
         <v>65</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D73" s="1">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="D73" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F73" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.15555555555555556</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>66</v>
       </c>
       <c r="B74">
         <v>66</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D74" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D74" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F74" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.14652777777777778</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>67</v>
       </c>
       <c r="B75">
         <v>67</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D75" s="1">
         <v>3.5416666666666666E-2</v>
       </c>
-      <c r="D75" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F75" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.14166666666666666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>68</v>
       </c>
       <c r="B76">
         <v>68</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D76" s="1">
         <v>4.6527777777777779E-2</v>
       </c>
-      <c r="D76" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F76" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.17222222222222225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>69</v>
       </c>
       <c r="B77">
         <v>69</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D77" s="1">
         <v>0</v>
       </c>
-      <c r="D77" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F77" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.13541666666666666</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>70</v>
       </c>
       <c r="B78">
         <v>70</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D78" s="1">
         <v>0.99652777777777779</v>
       </c>
-      <c r="D78" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F78" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.13263888888888889</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>71</v>
       </c>
       <c r="B79">
         <v>71</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D79" s="1">
         <v>0.99375000000000002</v>
       </c>
-      <c r="D79" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F79" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.12986111111111112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>72</v>
       </c>
       <c r="B80">
         <v>72</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D80" s="1">
         <v>4.2361111111111106E-2</v>
       </c>
-      <c r="D80" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.17013888888888887</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>73</v>
       </c>
       <c r="B81">
         <v>73</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D81" s="1">
         <v>0.9819444444444444</v>
       </c>
-      <c r="D81" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F81" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G81" s="1">
+        <v>9.930555555555555E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>74</v>
       </c>
       <c r="B82">
         <v>74</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D82" s="1">
         <v>0.98888888888888893</v>
       </c>
-      <c r="D82" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F82" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.12638888888888888</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>75</v>
       </c>
       <c r="B83">
         <v>75</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D83" s="1">
         <v>0.98402777777777783</v>
       </c>
-      <c r="D83" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F83" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>76</v>
       </c>
       <c r="B84">
         <v>76</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D84" s="1">
         <v>0.99097222222222225</v>
       </c>
-      <c r="D84" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F84" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.1277777777777778</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>77</v>
       </c>
       <c r="B85">
         <v>77</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D85" s="1">
         <v>0.98611111111111116</v>
       </c>
-      <c r="D85" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F85" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.12291666666666667</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>78</v>
       </c>
       <c r="B86">
         <v>78</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D86" s="1">
         <v>2.9861111111111113E-2</v>
       </c>
-      <c r="D86" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>79</v>
       </c>
       <c r="B87">
         <v>79</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D87" s="1">
         <v>3.2638888888888891E-2</v>
       </c>
-      <c r="D87" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F87" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.16180555555555556</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>80</v>
       </c>
       <c r="B88">
         <v>80</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D88" s="1">
         <v>0.9784722222222223</v>
       </c>
-      <c r="D88" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F88" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G88" s="1">
+        <v>9.6527777777777768E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>81</v>
       </c>
       <c r="B89">
         <v>81</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D89" s="1">
         <v>3.888888888888889E-2</v>
       </c>
-      <c r="D89" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F89" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.16805555555555554</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>82</v>
       </c>
       <c r="B90">
         <v>82</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D90" s="1">
         <v>0.97361111111111109</v>
       </c>
-      <c r="D90" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F90" s="2"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>83</v>
       </c>
       <c r="B91">
         <v>83</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D91" s="1">
         <v>0.97083333333333333</v>
       </c>
-      <c r="D91" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F91" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G91" s="1">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>84</v>
       </c>
       <c r="B92">
         <v>84</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D92" s="1">
         <v>0.96805555555555556</v>
-      </c>
-      <c r="D92" s="2">
-        <v>44771</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F92" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G92" s="1">
+        <v>9.0277777777777776E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>85</v>
       </c>
       <c r="B93">
         <v>85</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D93" s="1">
         <v>0.96805555555555556</v>
       </c>
-      <c r="D93" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F93" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G93" s="1">
+        <v>8.7500000000000008E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>86</v>
       </c>
       <c r="B94">
         <v>86</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D94" s="1">
         <v>0.96597222222222223</v>
       </c>
-      <c r="D94" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F94" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G94" s="1">
+        <v>8.5416666666666655E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>87</v>
       </c>
       <c r="B95">
         <v>87</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D95" s="1">
         <v>0.96319444444444446</v>
-      </c>
-      <c r="D95" s="2">
-        <v>44771</v>
       </c>
       <c r="E95" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F95" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G95" s="1">
+        <v>8.1944444444444445E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>88</v>
       </c>
       <c r="B96">
         <v>88</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D96" s="1">
         <v>0.9243055555555556</v>
       </c>
-      <c r="D96" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F96" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G96" s="1">
+        <v>3.6111111111111115E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>89</v>
       </c>
       <c r="B97">
         <v>89</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D97" s="1">
         <v>0.78680555555555554</v>
       </c>
-      <c r="D97" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F97" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>90</v>
       </c>
       <c r="B98">
         <v>90</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D98" s="1">
         <v>0.78333333333333333</v>
       </c>
-      <c r="D98" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F98" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.94513888888888886</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>91</v>
       </c>
       <c r="B99">
         <v>91</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D99" s="1">
         <v>0.77986111111111101</v>
       </c>
-      <c r="D99" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F99" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.94305555555555554</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>92</v>
       </c>
       <c r="B100">
         <v>92</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D100" s="1">
         <v>0.8340277777777777</v>
-      </c>
-      <c r="D100" s="2">
-        <v>44771</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F100" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.97361111111111109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>93</v>
       </c>
       <c r="B101">
         <v>93</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D101" s="1">
         <v>0.8340277777777777</v>
       </c>
-      <c r="D101" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F101" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.97152777777777777</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>94</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F102" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G102" s="1">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>95</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F103" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1.8749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>96</v>
       </c>
       <c r="B104">
         <v>96</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D104" s="1">
         <v>0.81944444444444453</v>
       </c>
-      <c r="D104" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F104" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>97</v>
       </c>
       <c r="B105">
         <v>97</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D105" s="1">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D105" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F105" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>98</v>
       </c>
       <c r="B106">
         <v>98</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D106" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D106" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F106" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.96111111111111114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>99</v>
       </c>
       <c r="B107">
         <v>99</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D107" s="1">
         <v>0.92083333333333339</v>
       </c>
-      <c r="D107" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F107" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G107" s="1">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>100</v>
       </c>
       <c r="B108">
         <v>100</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D108" s="1">
         <v>0.91805555555555562</v>
       </c>
-      <c r="D108" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F108" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G108" s="1">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>101</v>
       </c>
       <c r="B109">
         <v>101</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D109" s="1">
         <v>0.77569444444444446</v>
       </c>
-      <c r="D109" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F109" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.94097222222222221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>102</v>
       </c>
       <c r="B110">
         <v>102</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D110" s="1">
         <v>0.875</v>
       </c>
-      <c r="D110" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>103</v>
       </c>
       <c r="B111">
         <v>103</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D111" s="1">
         <v>0.87708333333333333</v>
       </c>
-      <c r="D111" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F111" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G111" s="1">
+        <v>4.1666666666666666E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>104</v>
       </c>
       <c r="B112">
         <v>104</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D112" s="1">
         <v>0.87361111111111101</v>
-      </c>
-      <c r="D112" s="2">
-        <v>44771</v>
       </c>
       <c r="E112" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F112" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>105</v>
       </c>
       <c r="B113">
         <v>105</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D113" s="1">
         <v>0.9145833333333333</v>
       </c>
-      <c r="D113" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F113" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G113" s="1">
+        <v>2.9166666666666664E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>106</v>
       </c>
       <c r="B114">
         <v>106</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D114" s="1">
         <v>0.90972222222222221</v>
       </c>
-      <c r="D114" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F114" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G114" s="1">
+        <v>2.6388888888888889E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>107</v>
       </c>
       <c r="B115">
         <v>107</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D115" s="1">
         <v>0.90625</v>
       </c>
-      <c r="D115" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F115" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G115" s="1">
+        <v>2.361111111111111E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>108</v>
       </c>
       <c r="B116">
         <v>108</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D116" s="1">
         <v>0.90277777777777779</v>
       </c>
-      <c r="D116" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F116" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1.5277777777777777E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>109</v>
       </c>
       <c r="B117">
         <v>109</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D117" s="1">
         <v>0.96111111111111114</v>
       </c>
-      <c r="D117" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F117" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G117" s="1">
+        <v>7.8472222222222221E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>110</v>
       </c>
       <c r="B118">
         <v>110</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D118" s="1">
         <v>0.76874999999999993</v>
       </c>
-      <c r="D118" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F118" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0.93680555555555556</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>111</v>
       </c>
       <c r="B119">
         <v>111</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D119" s="1">
         <v>0.84930555555555554</v>
       </c>
-      <c r="D119" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F119" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0.9819444444444444</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>112</v>
       </c>
       <c r="B120">
         <v>112</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D120" s="1">
         <v>0.84305555555555556</v>
       </c>
-      <c r="D120" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F120" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>113</v>
       </c>
       <c r="B121">
         <v>113</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D121" s="1">
         <v>0.84027777777777779</v>
       </c>
-      <c r="D121" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F121" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0.97638888888888886</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>114</v>
       </c>
       <c r="B122">
         <v>114</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D122" s="1">
         <v>0.82777777777777783</v>
       </c>
-      <c r="D122" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F122" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0.96388888888888891</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>115</v>
       </c>
       <c r="B123">
         <v>115</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D123" s="1">
         <v>0.93055555555555547</v>
       </c>
-      <c r="D123" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F123" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G123" s="1">
+        <v>4.3055555555555562E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>116</v>
       </c>
       <c r="B124">
         <v>116</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D124" s="1">
         <v>0.95486111111111116</v>
       </c>
-      <c r="D124" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F124" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G124" s="1">
+        <v>7.0833333333333331E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>117</v>
       </c>
       <c r="B125">
         <v>117</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D125" s="1">
         <v>0.93402777777777779</v>
       </c>
-      <c r="D125" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F125" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G125" s="1">
+        <v>4.5833333333333337E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>118</v>
       </c>
       <c r="B126">
         <v>118</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D126" s="1">
         <v>0.94305555555555554</v>
       </c>
-      <c r="D126" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F126" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G126" s="1">
+        <v>5.9027777777777783E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>119</v>
       </c>
       <c r="B127">
         <v>119</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D127" s="1">
         <v>0.9458333333333333</v>
       </c>
-      <c r="D127" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F127" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G127" s="1">
+        <v>6.1805555555555558E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>120</v>
       </c>
       <c r="B128">
         <v>120</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D128" s="1">
         <v>0.80347222222222225</v>
       </c>
-      <c r="D128" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F128" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0.95763888888888893</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>121</v>
       </c>
       <c r="B129">
         <v>121</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D129" s="1">
         <v>0.79861111111111116</v>
       </c>
-      <c r="D129" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F129" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>122</v>
       </c>
       <c r="B130">
         <v>122</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D130" s="1">
         <v>0.79513888888888884</v>
       </c>
-      <c r="D130" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F130" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0.95277777777777783</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>123</v>
       </c>
       <c r="B131">
         <v>123</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D131" s="1">
         <v>0.7895833333333333</v>
       </c>
-      <c r="D131" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F131" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>124</v>
       </c>
       <c r="B132">
         <v>124</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D132" s="1">
         <v>0.94027777777777777</v>
       </c>
-      <c r="D132" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F132" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G132" s="1">
+        <v>5.6944444444444443E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>125</v>
       </c>
       <c r="B133">
         <v>125</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D133" s="1">
         <v>0.9277777777777777</v>
       </c>
-      <c r="D133" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F133" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G133" s="1">
+        <v>3.888888888888889E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>126</v>
       </c>
       <c r="B134">
         <v>126</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D134" s="1">
         <v>0.94861111111111107</v>
-      </c>
-      <c r="D134" s="2">
-        <v>44771</v>
       </c>
       <c r="E134" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F134" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G134" s="1">
+        <v>6.458333333333334E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>127</v>
       </c>
       <c r="B135">
         <v>127</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D135" s="1">
         <v>0.95138888888888884</v>
       </c>
-      <c r="D135" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F135" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G135" s="1">
+        <v>6.7361111111111108E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>128</v>
       </c>
       <c r="B136">
         <v>128</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D136" s="1">
         <v>0.9375</v>
       </c>
-      <c r="D136" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F136" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G136" s="1">
+        <v>5.4166666666666669E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>129</v>
       </c>
       <c r="B137">
         <v>129</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D137" s="1">
         <v>0.76458333333333339</v>
       </c>
-      <c r="D137" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F137" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0.93333333333333324</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>130</v>
       </c>
       <c r="B138">
         <v>130</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D138" s="1">
         <v>0.7597222222222223</v>
       </c>
-      <c r="D138" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F138" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0.93055555555555547</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>131</v>
       </c>
       <c r="B139">
         <v>131</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D139" s="1">
         <v>0.75624999999999998</v>
       </c>
-      <c r="D139" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F139" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0.9277777777777777</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>132</v>
       </c>
       <c r="B140">
         <v>132</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D140" s="1">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D140" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F140" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0.91319444444444453</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>133</v>
       </c>
       <c r="B141">
         <v>133</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D141" s="1">
         <v>0.74652777777777779</v>
       </c>
-      <c r="D141" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F141" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0.91041666666666676</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>134</v>
       </c>
       <c r="B142">
         <v>134</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D142" s="1">
         <v>0.74305555555555547</v>
       </c>
-      <c r="D142" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F142" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0.90763888888888899</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>135</v>
       </c>
       <c r="B143">
         <v>135</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D143" s="1">
         <v>0.7319444444444444</v>
       </c>
-      <c r="D143" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F143" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0.90416666666666667</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>136</v>
       </c>
       <c r="B144">
         <v>136</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D144" s="1">
         <v>0.72569444444444453</v>
       </c>
-      <c r="D144" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F144" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0.88263888888888886</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>137</v>
       </c>
       <c r="B145">
         <v>137</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D145" s="1">
         <v>0.71180555555555547</v>
-      </c>
-      <c r="D145" s="2">
-        <v>44771</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F145" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0.88055555555555554</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>138</v>
       </c>
       <c r="B146">
         <v>138</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D146" s="1">
         <v>0.70416666666666661</v>
       </c>
-      <c r="D146" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F146" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0.87777777777777777</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>139</v>
       </c>
       <c r="B147">
         <v>139</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D147" s="1">
         <v>0.6972222222222223</v>
       </c>
-      <c r="D147" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F147" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0.87361111111111101</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>140</v>
       </c>
       <c r="B148">
         <v>140</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D148" s="1">
         <v>0.60069444444444442</v>
       </c>
-      <c r="D148" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F148" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0.8652777777777777</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>141</v>
       </c>
       <c r="B149">
         <v>141</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D149" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D149" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F149" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0.84027777777777779</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>142</v>
       </c>
       <c r="B150">
         <v>142</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D150" s="1">
         <v>0.10555555555555556</v>
       </c>
-      <c r="D150" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>143</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>144</v>
       </c>
       <c r="B152">
         <v>144</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D152" s="1">
         <v>0.10208333333333335</v>
       </c>
-      <c r="D152" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F152" s="2">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>145</v>
       </c>
       <c r="B153">
         <v>145</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D153" s="1">
         <v>9.6527777777777768E-2</v>
       </c>
-      <c r="D153" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F153" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G153" s="1">
+        <v>0.1423611111111111</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>146</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>147</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>148</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>149</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>150</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>151</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>152</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>153</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>154</v>
       </c>
       <c r="B162">
         <v>154</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D162" s="1">
         <v>9.930555555555555E-2</v>
       </c>
-      <c r="D162" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F162" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G162" s="1">
+        <v>0.22777777777777777</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>155</v>
       </c>
       <c r="B163">
         <v>155</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D163" s="1">
         <v>0.10972222222222222</v>
       </c>
-      <c r="D163" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F163" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G163" s="1">
+        <v>0.23194444444444443</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>157</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>158</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>159</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>160</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>161</v>
       </c>
       <c r="B169">
         <v>161</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D169" s="1">
         <v>0.8847222222222223</v>
       </c>
-      <c r="D169" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F169" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G169" s="1">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>162</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>163</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>164</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>165</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>166</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>168</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>169</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>170</v>
       </c>
       <c r="B178">
         <v>170</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C178" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D178" s="1">
         <v>0.87013888888888891</v>
       </c>
-      <c r="D178" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F178" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G178" s="1">
+        <v>0.99861111111111101</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>171</v>
       </c>
       <c r="B179">
         <v>171</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C179" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D179" s="1">
         <v>0.86388888888888893</v>
       </c>
-      <c r="D179" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F179" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G179" s="1">
+        <v>0.99375000000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>172</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>173</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>174</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>175</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>176</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>177</v>
       </c>
       <c r="B185">
         <v>177</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D185" s="1">
         <v>0.88888888888888884</v>
       </c>
-      <c r="D185" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>178</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>179</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>181</v>
       </c>
       <c r="B189">
         <v>181</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C189" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D189" s="1">
         <v>0.89236111111111116</v>
       </c>
-      <c r="D189" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G189" s="1">
+        <v>1.3194444444444444E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>182</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>183</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>184</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>185</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>186</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>187</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>188</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>189</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>190</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>191</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>192</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>193</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>194</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>195</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>196</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>197</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>198</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>199</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>200</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>201</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>202</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>203</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>204</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>205</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>206</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>207</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>208</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>209</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>210</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>211</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>212</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>213</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>214</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>215</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>216</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>217</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>218</v>
       </c>
       <c r="B226">
         <v>218</v>
       </c>
-      <c r="C226" s="1">
+      <c r="C226" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D226" s="1">
         <v>0.95694444444444438</v>
       </c>
-      <c r="D226" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F226" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G226" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>219</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>220</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>221</v>
       </c>
       <c r="B229">
         <v>221</v>
       </c>
-      <c r="C229" s="1">
+      <c r="C229" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D229" s="1">
         <v>0.65972222222222221</v>
       </c>
-      <c r="D229" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F229" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G229" s="1">
+        <v>0.83263888888888893</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>222</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>223</v>
       </c>
       <c r="B231">
         <v>223</v>
       </c>
-      <c r="C231" s="1">
+      <c r="C231" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D231" s="1">
         <v>0.65555555555555556</v>
       </c>
-      <c r="D231" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F231" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G231" s="1">
+        <v>0.82916666666666661</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>224</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>225</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>226</v>
       </c>
       <c r="B234">
         <v>226</v>
       </c>
-      <c r="C234" s="1">
+      <c r="C234" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D234" s="1">
         <v>0.65138888888888891</v>
       </c>
-      <c r="D234" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F234" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G234" s="1">
+        <v>0.82638888888888884</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>227</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>228</v>
       </c>
       <c r="B236">
         <v>228</v>
       </c>
-      <c r="C236" s="1">
+      <c r="C236" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D236" s="1">
         <v>0.8569444444444444</v>
       </c>
-      <c r="D236" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F236" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G236" s="1">
+        <v>0.9868055555555556</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>229</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>230</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>231</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>232</v>
       </c>
       <c r="B240">
         <v>232</v>
       </c>
-      <c r="C240" s="1">
+      <c r="C240" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D240" s="1">
         <v>0.86041666666666661</v>
       </c>
-      <c r="D240" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F240" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G240" s="1">
+        <v>0.98888888888888893</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>233</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>234</v>
       </c>
       <c r="B242">
         <v>234</v>
       </c>
-      <c r="C242" s="1">
+      <c r="C242" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D242" s="1">
         <v>0.6479166666666667</v>
       </c>
-      <c r="D242" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F242" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G242" s="1">
+        <v>0.82152777777777775</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>235</v>
       </c>
       <c r="B243">
         <v>235</v>
       </c>
-      <c r="C243" s="1">
+      <c r="C243" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D243" s="1">
         <v>0.60069444444444442</v>
       </c>
-      <c r="D243" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F243" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G243" s="1">
+        <v>0.81805555555555554</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>236</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>237</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>238</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>239</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>240</v>
       </c>
       <c r="B248">
         <v>240</v>
       </c>
-      <c r="C248" s="1">
+      <c r="C248" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D248" s="1">
         <v>0.59236111111111112</v>
       </c>
-      <c r="D248" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F248" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G248" s="1">
+        <v>0.81458333333333333</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>241</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>242</v>
       </c>
       <c r="B250">
         <v>242</v>
       </c>
-      <c r="C250" s="1">
+      <c r="C250" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D250" s="1">
         <v>0.58472222222222225</v>
       </c>
-      <c r="D250" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E250" t="s">
+        <v>29</v>
+      </c>
+      <c r="F250" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G250" s="1">
+        <v>0.81041666666666667</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>243</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>244</v>
       </c>
       <c r="B252">
         <v>244</v>
       </c>
-      <c r="C252" s="1">
+      <c r="C252" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D252" s="1">
         <v>0.57222222222222219</v>
       </c>
-      <c r="D252" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F252" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G252" s="1">
+        <v>0.80138888888888893</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>245</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>246</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>247</v>
       </c>
       <c r="B255">
         <v>247</v>
       </c>
-      <c r="C255" s="1">
+      <c r="C255" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D255" s="1">
         <v>0.58124999999999993</v>
       </c>
-      <c r="D255" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F255" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G255" s="1">
+        <v>0.80625000000000002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>248</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>249</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>250</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>252</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>253</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>254</v>
       </c>
       <c r="B262">
         <v>254</v>
       </c>
-      <c r="C262" s="1">
+      <c r="C262" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D262" s="1">
         <v>0.58194444444444449</v>
       </c>
-      <c r="D262" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F262" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G262" s="1">
+        <v>0.79652777777777783</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>255</v>
       </c>
       <c r="B263">
         <v>255</v>
       </c>
-      <c r="C263" s="1">
+      <c r="C263" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D263" s="1">
         <v>0.53194444444444444</v>
       </c>
-      <c r="D263" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F263" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G263" s="1">
+        <v>0.79375000000000007</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>256</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>257</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>258</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>259</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>260</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>261</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>262</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>263</v>
       </c>
       <c r="B271">
         <v>263</v>
       </c>
-      <c r="C271" s="1">
+      <c r="C271" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D271" s="1">
         <v>0.52500000000000002</v>
       </c>
-      <c r="D271" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F271" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G271" s="1">
+        <v>0.78541666666666676</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>264</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>265</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>266</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>267</v>
       </c>
       <c r="B275">
         <v>267</v>
       </c>
-      <c r="C275" s="1">
+      <c r="C275" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D275" s="1">
         <v>0.52013888888888882</v>
       </c>
-      <c r="D275" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F275" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G275" s="1">
+        <v>0.7895833333333333</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>268</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>269</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>270</v>
       </c>
       <c r="B278">
         <v>270</v>
       </c>
-      <c r="C278" s="1">
+      <c r="C278" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D278" s="1">
         <v>0.8666666666666667</v>
       </c>
-      <c r="D278" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F278" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G278" s="1">
+        <v>0.99583333333333324</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>271</v>
       </c>
       <c r="B279">
         <v>271</v>
       </c>
-      <c r="C279" s="1">
+      <c r="C279" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D279" s="1">
         <v>0.51250000000000007</v>
       </c>
-      <c r="D279" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F279" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G279" s="1">
+        <v>0.78055555555555556</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>272</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>273</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>274</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>275</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>276</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>277</v>
       </c>
       <c r="B285">
         <v>277</v>
       </c>
-      <c r="C285" s="1">
+      <c r="C285" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D285" s="1">
         <v>0.48680555555555555</v>
-      </c>
-      <c r="D285" s="2">
-        <v>44771</v>
       </c>
       <c r="E285" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F285" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G285" s="1">
+        <v>0.77569444444444446</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>278</v>
       </c>
       <c r="B286">
         <v>278</v>
       </c>
-      <c r="C286" s="1">
+      <c r="C286" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D286" s="1">
         <v>0.48194444444444445</v>
       </c>
-      <c r="D286" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F286" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G286" s="1">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>279</v>
       </c>
       <c r="B287">
         <v>279</v>
       </c>
-      <c r="C287" s="1">
+      <c r="C287" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D287" s="1">
         <v>0.85277777777777775</v>
       </c>
-      <c r="D287" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F287" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G287" s="1">
+        <v>0.98472222222222217</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>280</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G288" s="1"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>281</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>282</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>283</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>284</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>285</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>286</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>287</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>288</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>289</v>
       </c>
       <c r="B297">
         <v>289</v>
       </c>
-      <c r="C297" s="1">
+      <c r="C297" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D297" s="1">
         <v>0.1451388888888889</v>
       </c>
-      <c r="D297" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F297" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G297" s="1">
+        <v>0.25972222222222224</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>290</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>291</v>
       </c>
       <c r="B299">
         <v>291</v>
       </c>
-      <c r="C299" s="1">
+      <c r="C299" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D299" s="1">
         <v>0.14791666666666667</v>
       </c>
-      <c r="D299" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F299" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G299" s="1">
+        <v>0.26111111111111113</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>292</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>293</v>
       </c>
       <c r="B301">
         <v>293</v>
       </c>
-      <c r="C301" s="1">
+      <c r="C301" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D301" s="1">
         <v>0.15069444444444444</v>
       </c>
-      <c r="D301" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F301" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G301" s="1">
+        <v>0.26319444444444445</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>294</v>
       </c>
       <c r="B302">
         <v>294</v>
       </c>
-      <c r="C302" s="1">
+      <c r="C302" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D302" s="1">
         <v>0.15347222222222223</v>
       </c>
-      <c r="D302" s="2">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F302" s="2">
+        <v>44773</v>
+      </c>
+      <c r="G302" s="1">
+        <v>0.26458333333333334</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C303" s="1"/>
-      <c r="D303" s="2"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="C303" s="2"/>
+      <c r="D303" s="1"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>295</v>
       </c>
       <c r="B304" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>296</v>
       </c>
       <c r="B305" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>297</v>
       </c>
       <c r="B306" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>298</v>
       </c>
       <c r="B307" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>299</v>
       </c>
       <c r="B308" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>300</v>
       </c>
       <c r="B309" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>301</v>
       </c>
       <c r="B310" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>302</v>
       </c>
       <c r="B311" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>303</v>
       </c>
       <c r="B312" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>304</v>
       </c>
       <c r="B313" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>305</v>
       </c>
       <c r="B314" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>306</v>
       </c>
       <c r="B315" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>307</v>
       </c>
       <c r="B316" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>308</v>
       </c>
       <c r="B317" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>309</v>
       </c>
       <c r="B318" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>310</v>
       </c>
       <c r="B319" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F319" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G319" s="2">
         <v>44773</v>
@@ -3757,15 +4744,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>311</v>
       </c>
       <c r="B320" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F320" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G320" s="2">
         <v>44773</v>
@@ -3780,15 +4767,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>312</v>
       </c>
       <c r="B321" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F321" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G321" s="2">
         <v>44773</v>
@@ -3803,15 +4790,15 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>313</v>
       </c>
       <c r="B322" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F322" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G322" s="2">
         <v>44773</v>
@@ -3826,15 +4813,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>314</v>
       </c>
       <c r="B323" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F323" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G323" s="2">
         <v>44773</v>
@@ -3849,15 +4836,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>315</v>
       </c>
       <c r="B324" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F324" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G324" s="2">
         <v>44773</v>
@@ -3872,15 +4859,15 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>316</v>
       </c>
       <c r="B325" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F325" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G325" s="2">
         <v>44773</v>
@@ -3895,15 +4882,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>317</v>
       </c>
       <c r="B326" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F326" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G326" s="2">
         <v>44773</v>
@@ -3915,15 +4902,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>318</v>
       </c>
       <c r="B327" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F327" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G327" s="2">
         <v>44773</v>
@@ -3938,15 +4925,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>319</v>
       </c>
       <c r="B328" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F328" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G328" s="2">
         <v>44773</v>
@@ -3958,15 +4945,15 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>320</v>
       </c>
       <c r="B329" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F329" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G329" s="2">
         <v>44773</v>
@@ -3978,15 +4965,15 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>321</v>
       </c>
       <c r="B330" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F330" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G330" s="2">
         <v>44773</v>
@@ -4001,15 +4988,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>322</v>
       </c>
       <c r="B331" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F331" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G331" s="2">
         <v>44773</v>
@@ -4024,15 +5011,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>323</v>
       </c>
       <c r="B332" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F332" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G332" s="2">
         <v>44773</v>
@@ -4047,15 +5034,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>324</v>
       </c>
       <c r="B333" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F333" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G333" s="2">
         <v>44773</v>
@@ -4070,15 +5057,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>325</v>
       </c>
       <c r="B334" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F334" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G334" s="2">
         <v>44773</v>
@@ -4090,7 +5077,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H335" s="4"/>
     </row>
   </sheetData>
